--- a/Testdata/TC_134.xlsx
+++ b/Testdata/TC_134.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RwAAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD3W0n2UmiSq98SYKFHUexQyb7gtrdlbhId5fpqk7it0W7aEcLIyGxOwjYBYGEQEjsrsSyYndA819W48zwxF/g1KVvtjPjHkbRpOvc6tSpU+d8VUFv3wa+cY0jRmi4V6nXrIqBQ5d6JLzcq8T8olp/q/K2jfZvXewfO5ETYA7CBmiFbPeWkb3KhPPprmne3NzUbjZqNLo0G5ZVNx/2e0N3ggOnSkLGndDFlVTLe71WxUZtL+hj7ngOd5TmXqU77NbamLgdoPWd0LnEUa0VMxJixvZDTjjBTGhG2OG43en/QC3MbtTeqtWRuUTPJFsx8T0lV5BUdC0H0+IRCbDdsOrbVWunam2M6tautbXbeFDb3qq/kyimgqjnMD7E0TVxJWHInWAq1a0da6NuWVuNB8hcKQS2sgDYaOB7J/iaMOy1se+zUhEx9QY2XQ6rLhdMC5k5XW3ozV04jJzpZES4j8u5cXLaMsah9iUzYqMDGmEX4vdGLh3hm0Gkwzqa9oA7mpCIzzrOrLStU4ajwVQEqZyqjTo05E0fR/x0CnuNPUgFYNg8ijEy72FmSh3CXPgmYYw9+8LxWV6pwERnNLpiU8fFR3COTWHjJvSp40HCccI4cbNJlxjoOKJTsAiTt6jvHYBVLbyCkVruhhBiMW2L0qvMu1VMJHdV7i/saeDwRHyJjoYTejMI/dkwHjM3ImPsdVqJ9EoeEgdSa7djxmkAXmQkpGg5Sr9vzuAfnMFFDupglwSOf+xDHJm9AYYKBNSMOb0gvE39OAhZ4tYCFZ3Bokb4Nl1kOkYD2N9QxJ2G3TCRV5FeySoqnNCbdM5lhoxDjtxkbrLjy4xF4Q7Qkh1c5shNEas8ID60iPx25KjFxBhOMOYrs0JxkKiGB6Lp2K3ZURyM4YSN4Zhdy1kZMjM+glSFdAe/bAsaSVX+jCwozuIH/EjZaD/07pdLmAimy81l14G3QEKwJr/lO+EVUM8Inxw1k7Ws4CAVgXvll3kIDu/Ud2aSnEYpT0Pd0PVjD6ua0A0vZIoK39Sm3stGS6QeHHMbOeFsNJtCaWZkl8PHXgWa9S7jEcCBiu3SOOTRTBQPZGrR1+mweBzKCRx/bZ2LCP84BhQyO4hDt0299WfzVHROQ8LX95DGkaqI66vI6IniGLMOFmVG1v219d0ya2JRKfEgxAENibt+tCHIwnvvDRbCklO1tgZW52tteR9au+p84qyvrRYBhIReV2qaJmPUJTJZ9fHwcvrmPUemgy+c2Af4xqHLXqa1d5GMmuxqUSZPQqeRn1RAW4BjBujY9YKaC/hBIMCaSwNBMAGUng2RmZcXIMjF++FlzwkvY4AZaV1ZpKf1V7TIUeSETCwnRRULpXi1EErqlEI7tipeg1gmgipeFLjIXJBDIxxMaeT4fQgMOdBppyEToJG+wyd6BL3Nx24SZDNTTbWKniWOv05MNim1DHHgdZlcIEohsRaFwzOZjIbEKvtwLP2245NxpKpq0spX8WDDMnyY1F+xuJJYMdkDuItB9/0+ngmAng00XaZsPWGoBBaF1B6ebG43Nne2QUmOkVxxG3yiPpH40jikcB0MA9AzABljQI67xozDUVDB0Q2ohF5eAx0ktV1O34cULRCKfIAYlwQ6x5Jcysjk7T4Az4k/y0mq1fWoC4LzXzyaf/3V3UfP5t98cvfRV/Of/um///rN/Osv548+ffnB358//VCtTwmjkTP2sXRo1NretjY2IbVSEhLxNCUg9mKXS9r5ucTB6Rjp65wctPe77cNeS5aQlJioqy5iipvijMbZcKgWISeSu2gmm69E7FFSkvS4wM11JVvc3K5xUTrPv09RxeLF0z+/ePq3e7V1wDJ4Vd/Z2VgHfcEdeLNqNe5BX71C2dfCW9VGIye8IINOVM1P49T1bLhh79S3H1j1tHx7aQavElpkaUsj59Jc0FOktkJEaQrkxwlT5v0IM56y1UnIDVQQ7/7xs5eff1yQ0tHVlKIVcE4iFzGZmQyk6aOTkTEcnJ60943R/lDkScbLySnjrxDWs6fnKZ80y6etkFKrqMrcKxUXZzyMaDxdqhQZdYXkypqxzF3QlLFZdi3jrZDXu/bJo1UKeiWdDJCmTxh5GipwFCnH17Xr8U+ef/Ps+bP3X/z7V3dPPp8//uP8n+8V7OjZ0vs9pC4ckPwwzWSoYrprLFDQ2VDG9Mr6Ya5LaKK4Dh1TEnJmN7Y25VVIDxHo1oU5+Rt1A+hc0rIMG9AXKOh7Dtu/5fqw2kfILBLA0akDTZNmV8iUoOpyFt7/fPq7u99+effki5cf/HX+4V/mP3/y4unvX372B3WS7j7+4u7xZ7pyLxZ36Yu4mCosZ8iXDtcQJ8wQLdj49t1fGiHlBiAHI5ZV5tt3f50zJhyVGCOzDMgsdaTowpJoXlnoGTlXUh8KeqmK6uNt0ZY2UgndmOiUuNkk71SFKYCXhmR8pzuqxgwbFEDRd2ElReFMeV09raLa5PEDq1FvaK7yRixh7LBc6A99OnZ8I2HId4QFkYLWqxUyWTnfYW/QavYyEeXEIPJwJNJQfaAEGYo20WXJKEm1HAW4gN/c2BdPP0tiy6zUcq6cmfoN5aLpiQf11S8OBQnUjqNIoZxQv8oP4ylg2uSx7X6+fIDMwdgjBTnzwDYbdztFPoxzXGhuRbYgSL6sUJqlqlWXiecahUqPRGiyIfAKj5YQDv3wrtDTNYEtMUXh2Y8iGq2sPhknEesDIIaKYmYRT2Xknirw7GV7lRCSipd+qAucXiHtYB/zcq/SZqbdB/T7prqw92VVu2zgezqY5W4QaVgyA/mneZEo/+/LvEq2ZhQBWBLveKWf0pP75wlcW0t6o5YiFcVFDmbXb90HJGL8oagE+ktRzlPKuUKdD8W9SX3I8bm9saUIIGDmrZsFN5Ojy9UfSKjfIwEpebuzkvNdNAKxnE4VLOuWyxTRWo7wLYDGnAUoiuMfQdtQzyFlrKmEhVqa6osnSEYuJ7ysYw/GDvbw2Kq6Y9yobnrWdnUH441qvQ7/O26jYVlb4gFTG4fKQfBNyUnMZMOyP1za/wN/DYM+8RwAAA==</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB6XbHyThRpVe+JVjYcRQ7ZLIvqN1djou0u01XdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0lc7M+4wyihd51anTp0656sKeud25paucUCJ7x2Uq1t6uYQ923eId3lQDtmkUt0tv2Oizq2N3RMrsGaYgXAJtDy6f0vJQXnK2Hxf025ubrZutrf84FIzdL2qPe73hvYUz6wK8SizPBuXYy3n7VplE7WcWR8zy7GYJTUPyt1hd6uFid0GWt/yrEscbDVDSjxMacdjhBFMuWaALYZb7f735MJMY2t3q4q0FXoi2QyJ60i5jKSkKzmYFo/IDJuGbugVvV4x9JG+t2/U9w1jq1atvhspxoKoZ1E2xME1sQVhyKzZXKjrdfi/Z9QNA2lrhcBWEgATDVznFF8Tip0Wdl1aKCKa2sCGzWDVxYKpIy2lqww93IWjwJpPR4S5uKj6oR9gGwL1oLmP8c0gUPEbzXvAHU1JwBZta1HY1hnFwWDOo1FM1URt32MNFwfsbA6bih3Yc2CYLAgx0u5hJkptQm34Jl6IHXNiuTStlGGicz+4onPLxsdwYDVu48ZzfcuBzGKEMmInk64w0Engz8EiTN70XecQrCrhNYzYcteDEPNpm75/lXi3jolEDohsgD2dWSwSX6Gj4dS/GXjuYhiOqR2QMXbazUh6LQ/xk6e0WyFl/gy8SEhI0lKUfl9bwD84bHkOamObzCz3xIU4UnMbDGUIqBEyf0JYy3fDmUcjt3JUdA6LGuHbeJHxGA1gfz0ed9/repG8jPRaVlbh1L+J51xliDikyA1qRzu+ysgLt4EW7eAqR2wKX+UhcaEXpLcjRc0mxnCKMVubFZKDeNk75N3FbC6Ow9kYTtgYjtm1mJUiLeEjSFVId/DL1KFjVMTPSNf3xQ/4EbNRx3Pul4uYCKZLzWVWgZcjIViT23Qt7wqo54RNjxvRWtZwkIzAvfKrPASHd+5aC0GOo5Smoa5nu6GDZU3oehORotw3uan3stEKqQfH3ESWtxgt5lCDKdln8HFQhq68T1kAfb9s2n7osWDBiwfSlOjbdGg49sQElruxziTAPwwBbiwOQ89u+c7mszkyOmceYZt76IeBrIibq4jo8eIY0jbmZUbU/Y317SJrokEh8ZmHZ75H7M2jDUHm3jsPWAiNTtXGGlier43lXWjtsvPxs76xWgBYEXpdoWkalPo2EcmqjoeT0tfuOTJtPLFCF3Aagy57GdfePBk16FVeJk1CZ4EbVUCTo2AKMNh2Zls24AcO9bZsf8YJGqDP8yHS0vIcBNm44132LO8yBJgR15U8Pa6/vEWOAsujfDkxqsiV4vVCKKpTEu2YsngNQpEIsnj5wEVaTg6N8GzuB5bbh8CQQ5V2CjIBGulbbKpG0NtcbEdB1hLVWCvrWeT428REk5LL4AdelckcUQjxtUjAncgkNMRX2Ydj6bYsl4wDWVWjVr6OBxuW4MOo/vLFFcSK0R7ApQu673fxgiPxZKDoImWrEUMmMC+k5vC0Vjdqe3VQEmMkVtwCn3yXCHxZOvLh3ufNQK8EyBgDctwvLRgcBRkc1YAK6KU10GFU28X0fUjRDCHLB4hxSaBzrMjFjETe7APwnLqLlKRcXc+3QXD5iyfLr768+/DF8uuP7z78cvnTP/33X79ZfvXF8sknr9//+8vnH8j1SWE0ssYuFg6NmvW6vl2D1IpJiMdTE4DYCW0maBcXAgfHY6TubWLQ6nRbR72mKCExMVKXXUTjV8KFHybDoVyEmEjsohZtvhQxR1FJUuMMN9WVTH5Fu8ZZ6TT/PkUZi1fP//zq+d/u1VYBS+BVdW9vexP0ZejVWkU37kFfvUzZV8I7FcNICedk0Kms+XGcuo65XdX3qvVHejUu306cweuE8ixlaWRdajk9SWpJRBSnQHocMUXejzBlMVuehNRABvHuHz97/dlHGSkVXUXJWgHnBHLhk2nRQJg+Ph2VhoOz01anNOoMeZ4kvJScNP4GYTV7fJ7SSbN62jIptY4qzb1RMT/jUeCH85VKkVDXSK6tGavcnKaIzaprCW+NvNq1j5+sU1AraSeA1Dw9a5bGXpxkgoYyHElK8VXtevqjl1+/ePniJ6/+/au7Z58tn/5x+c8fZ+yo2eL7PaQuHJD0MM5kqGKqa+Qo6HwoYnqlfz/VJRSRX4dOfOIxaho7NXEVUkMEulVuTvxG3Rl0LmFZhA3oOQr6jkU7t0wdVvMYaVkCODq3oGn6yRUyJsi6nIT3P5/87u63X9w9+/z1+39dfvCX5c+fvXr++9ef/kGepLuPPr97+qmq3PniLnzhF1OJ5UripcMu8RNW4i249M17vyx5PisBciiFosp8896vU8a4owJjJJYBmcWOZF1YEU0rc71SypXYh4xerCL7eIu3pe1YQjUmf07sZJJ3K9wUwMuSYHyrO6qEFJd8AEXfhpVkhRPlTfWUimyTJ490o2oorvSGL2Fs0VToj1x/bLmliCHeEXIiGa03KySyYr6j3qDZ6CUi0olB4OCAp6H8QF0aYcMovVIU4AJms0OXP/esiK2yUPSVKmGaejeZNBz+Wr7+lSEjgVphEEhk46kn92E4BxwbPbDdzxePjinoeixhZhrMJuNuO8uHcYoLDS3L5gTBF1VJsWSF6lL+RCOR6DEPTTIEXuahEsKhXtUlYromsA0aLzadIPCDtRUn4URifQDBUEW0JOKxjManlIDZSfYqIkRVLv6Qlza1Qr+NXcwKPzlH2n1AvA/Vhb0vqtqlA9dRwSx2a4jDkhhIv7vzRCnqTCMIAArxV7rCD+U94l11i63e3KnvjHfGRq2+M6nt6HhsPdqt2ruGs1fDu7r1CMCgMMovkdwEv4XwK1ixSQAAZtWT6/IpXKALWpMBFor8SgmREgdSFfZ4jA5JQNljXqLUl6RcxJQLCYcfc//khxhfmNs7kgACWnoyLeN1VF+Y/BON7/bIjBS8dupREcoagTSYzyVeLLqh0POO8S2g2ZQFqNbjH0A/k+80RazJUwVFPtaPbA3DcWFzWqR8AnyeWA/T7jgAzB6uLf7gQdz/wwGBvB5qoutRcjllRffVgOsf3sVGxZjYdqUGgwp043HFsSZ7VV2fbDs7Bn+YVsahOxB8U3AS3lMIDS23uJ6W+4u1+T/+qpgg6h4AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796309</v>
+        <v>-0.3785388757796306</v>
       </c>
     </row>
     <row r="21">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Consolidated Government Revenue: ytd</Name>
+          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
+          <SeriesId>310918701</SeriesId>
+          <Code>SR4824980</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D6CD63-5E1D-4177-A6D0-D7E1D7F31481}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_134.xlsx
+++ b/Testdata/TC_134.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -28,7 +29,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB6XbHyThRpVe+JVjYcRQ7ZLIvqN1djou0u01XdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0lc7M+4wyihd51anTp0656sKeud25paucUCJ7x2Uq1t6uYQ923eId3lQDtmkUt0tv2Oizq2N3RMrsGaYgXAJtDy6f0vJQXnK2Hxf025ubrZutrf84FIzdL2qPe73hvYUz6wK8SizPBuXYy3n7VplE7WcWR8zy7GYJTUPyt1hd6uFid0GWt/yrEscbDVDSjxMacdjhBFMuWaALYZb7f735MJMY2t3q4q0FXoi2QyJ60i5jKSkKzmYFo/IDJuGbugVvV4x9JG+t2/U9w1jq1atvhspxoKoZ1E2xME1sQVhyKzZXKjrdfi/Z9QNA2lrhcBWEgATDVznFF8Tip0Wdl1aKCKa2sCGzWDVxYKpIy2lqww93IWjwJpPR4S5uKj6oR9gGwL1oLmP8c0gUPEbzXvAHU1JwBZta1HY1hnFwWDOo1FM1URt32MNFwfsbA6bih3Yc2CYLAgx0u5hJkptQm34Jl6IHXNiuTStlGGicz+4onPLxsdwYDVu48ZzfcuBzGKEMmInk64w0Engz8EiTN70XecQrCrhNYzYcteDEPNpm75/lXi3jolEDohsgD2dWSwSX6Gj4dS/GXjuYhiOqR2QMXbazUh6LQ/xk6e0WyFl/gy8SEhI0lKUfl9bwD84bHkOamObzCz3xIU4UnMbDGUIqBEyf0JYy3fDmUcjt3JUdA6LGuHbeJHxGA1gfz0ed9/repG8jPRaVlbh1L+J51xliDikyA1qRzu+ysgLt4EW7eAqR2wKX+UhcaEXpLcjRc0mxnCKMVubFZKDeNk75N3FbC6Ow9kYTtgYjtm1mJUiLeEjSFVId/DL1KFjVMTPSNf3xQ/4EbNRx3Pul4uYCKZLzWVWgZcjIViT23Qt7wqo54RNjxvRWtZwkIzAvfKrPASHd+5aC0GOo5Smoa5nu6GDZU3oehORotw3uan3stEKqQfH3ESWtxgt5lCDKdln8HFQhq68T1kAfb9s2n7osWDBiwfSlOjbdGg49sQElruxziTAPwwBbiwOQ89u+c7mszkyOmceYZt76IeBrIibq4jo8eIY0jbmZUbU/Y317SJrokEh8ZmHZ75H7M2jDUHm3jsPWAiNTtXGGlier43lXWjtsvPxs76xWgBYEXpdoWkalPo2EcmqjoeT0tfuOTJtPLFCF3Aagy57GdfePBk16FVeJk1CZ4EbVUCTo2AKMNh2Zls24AcO9bZsf8YJGqDP8yHS0vIcBNm44132LO8yBJgR15U8Pa6/vEWOAsujfDkxqsiV4vVCKKpTEu2YsngNQpEIsnj5wEVaTg6N8GzuB5bbh8CQQ5V2CjIBGulbbKpG0NtcbEdB1hLVWCvrWeT428REk5LL4AdelckcUQjxtUjAncgkNMRX2Ydj6bYsl4wDWVWjVr6OBxuW4MOo/vLFFcSK0R7ApQu673fxgiPxZKDoImWrEUMmMC+k5vC0Vjdqe3VQEmMkVtwCn3yXCHxZOvLh3ufNQK8EyBgDctwvLRgcBRkc1YAK6KU10GFU28X0fUjRDCHLB4hxSaBzrMjFjETe7APwnLqLlKRcXc+3QXD5iyfLr768+/DF8uuP7z78cvnTP/33X79ZfvXF8sknr9//+8vnH8j1SWE0ssYuFg6NmvW6vl2D1IpJiMdTE4DYCW0maBcXAgfHY6TubWLQ6nRbR72mKCExMVKXXUTjV8KFHybDoVyEmEjsohZtvhQxR1FJUuMMN9WVTH5Fu8ZZ6TT/PkUZi1fP//zq+d/u1VYBS+BVdW9vexP0ZejVWkU37kFfvUzZV8I7FcNICedk0Kms+XGcuo65XdX3qvVHejUu306cweuE8ixlaWRdajk9SWpJRBSnQHocMUXejzBlMVuehNRABvHuHz97/dlHGSkVXUXJWgHnBHLhk2nRQJg+Ph2VhoOz01anNOoMeZ4kvJScNP4GYTV7fJ7SSbN62jIptY4qzb1RMT/jUeCH85VKkVDXSK6tGavcnKaIzaprCW+NvNq1j5+sU1AraSeA1Dw9a5bGXpxkgoYyHElK8VXtevqjl1+/ePniJ6/+/au7Z58tn/5x+c8fZ+yo2eL7PaQuHJD0MM5kqGKqa+Qo6HwoYnqlfz/VJRSRX4dOfOIxaho7NXEVUkMEulVuTvxG3Rl0LmFZhA3oOQr6jkU7t0wdVvMYaVkCODq3oGn6yRUyJsi6nIT3P5/87u63X9w9+/z1+39dfvCX5c+fvXr++9ef/kGepLuPPr97+qmq3PniLnzhF1OJ5UripcMu8RNW4i249M17vyx5PisBciiFosp8896vU8a4owJjJJYBmcWOZF1YEU0rc71SypXYh4xerCL7eIu3pe1YQjUmf07sZJJ3K9wUwMuSYHyrO6qEFJd8AEXfhpVkhRPlTfWUimyTJ490o2oorvSGL2Fs0VToj1x/bLmliCHeEXIiGa03KySyYr6j3qDZ6CUi0olB4OCAp6H8QF0aYcMovVIU4AJms0OXP/esiK2yUPSVKmGaejeZNBz+Wr7+lSEjgVphEEhk46kn92E4BxwbPbDdzxePjinoeixhZhrMJuNuO8uHcYoLDS3L5gTBF1VJsWSF6lL+RCOR6DEPTTIEXuahEsKhXtUlYromsA0aLzadIPCDtRUn4URifQDBUEW0JOKxjManlIDZSfYqIkRVLv6Qlza1Qr+NXcwKPzlH2n1AvA/Vhb0vqtqlA9dRwSx2a4jDkhhIv7vzRCnqTCMIAArxV7rCD+U94l11i63e3KnvjHfGRq2+M6nt6HhsPdqt2ruGs1fDu7r1CMCgMMovkdwEv4XwK1ixSQAAZtWT6/IpXKALWpMBFor8SgmREgdSFfZ4jA5JQNljXqLUl6RcxJQLCYcfc//khxhfmNs7kgACWnoyLeN1VF+Y/BON7/bIjBS8dupREcoagTSYzyVeLLqh0POO8S2g2ZQFqNbjH0A/k+80RazJUwVFPtaPbA3DcWFzWqR8AnyeWA/T7jgAzB6uLf7gQdz/wwGBvB5qoutRcjllRffVgOsf3sVGxZjYdqUGgwp043HFsSZ7VV2fbDs7Bn+YVsahOxB8U3AS3lMIDS23uJ6W+4u1+T/+qpgg6h4AAA==</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB7m47mYmjSq98S7Cw4yh2yMy+oHZ3OS7S7jZd1Un8tgjQjhZGQmJ3ELALAgmBkNhdiWXF7oDmv6zGmeGJv8CpS1/tzLjDKNJ0nVudOnXqnK/K6J2buVu6wgElvndQNqp6uYQ923eId3FQDtm0Yjwov2Oi7o2N3RMrsOaYgXAJtDy6f0PJQXnG2GJf066vr6vX9aofXGg1XTe0R4P+yJ7huVUhHmWWZ+NyrOW8XatsorYzH2BmORazpOZBuTfqVduY2B2gDSzPusBBtRVS4mFKux4jjGDKNQNsMdzuDL4nF2bWqg+qBtLW6IlkKySuI+UykpKu5GBaPCZzbNb0ml7R9yo1fWwY+8bOvr5b1fXGu5FiLIj6FmUjHFwRWxBGzJovhLq+V9MNw9jRd5G2UQhsJQEw0dB1TvEVodhpY9elhSKiqQ1s2gxWXSyYOtJSusrQ/V04CqzFbEyYi4uqH/oBtiFQ95r7GF8PAxW/8aIP3PGMBGzZsZaFbZ1RHAwXPBrFVE3U8T3WdHHAzhawqdiBPQeGyYIQI+0OZqLUIdSGb+KF2DGnlkvTShkmOveDS7qwbHwMB1bjNq4917ccyCxGKCN2MukaA50E/gIswuQt33UOwaoS3sCILfc8CDGftuX7l4l3m5hI5IDIBtjTucUi8TU6Gs3866HnLkfhhNoBmWCn04qkN/IQP3lKux1S5s/Bi4SEJC1FGQy0JfyDw5bnoA62ydxyT1yIIzXrYChDQM2Q+VPC2r4bzj0auZWjonNY1BjfxIuMx2gI++vxuPtez4vkZaQ3srIKp/51POc6Q8QhRW5SO9rxdUZeuAO0aAfXOWJT+CoPiQu9IL0dKWo2MUYzjNnGrJAcxMveIe8uZmt5HM4ncMImcMyuxKwUaQkfQapCuoNfpg4doyL+xrq+L/7Aj5iNup5zt1zERDBdai7TAF6OhGBNbsu1vEugnhM2O25Ga9nAQTICd8qv8xAc3oVrLQU5jlKahnqe7YYOljWh501FinLf5KbeyUZrpD4ccxNZ3nK8XEANpmSfwcdBGbryPmUB9P2yafuhx4IlLx5IU6Jv06HhxBMTWO7WOtMA/zAEuLE8DD277Tvbz+bI6Jx5hG3voR8GsiJuryKix4tjSDuYlxlR97fWt4usiQaFxOcenvsesbePNgSZe+/cYyE0OlVba2B5vraWd6G1y87Hz/rWagFgReh1haZpUurbRCSrOh5OSl+748h08NQKXcBpDLrsRVx782TUpJd5mTQJnQVuVAFNjoIpwGDbmVdtwA8c6lVtf84JGqDP8xHS0vIcBNm46130Le8iBJgR15U8Pa6/vEWOA8ujfDkxqsiV4s1CKKpTEu2YsngNQ5EIsnj5wEVaTg6N8XzhB5Y7gMCQQ5V2CjIBGhlYbKZG0NtcbEdB1hLVWCvrWeT428REk5LL4AdelckcUQjxtUjAncgkNMRXOYBj6bYtl0wCWVWjVr6JBxuW4MOo/vLFFcSK0R7ApQu673fxkiPxZKDoImWNiCETmBdSc3S6s1fbaeyBkhgjseI2+OS7RODL0pEP9z5vDnolQMYYkON+acngKMjgqAZUQC+tgQ6j2i6mH0CKZghZPkCMCwKdY00uZiTy5gCA58xdpiTl6vq+DYKrXzxZffXl7YcvVl9/fPvhl6uf/um///rN6qsvVk8+ef3+318+/0CuTwqjsTVxsXBo3Nrb0+s7kFoxCfF4agIQO6HNBO3xY4GD4zFS9zYxaHd77aN+S5SQmBipyy6i8Svh0g+T4UguQkwkdlGLNl+KmOOoJKlxhpvqSia/ol3hrHSaf5eijMWr539+9fxvd2qrgCXwymg06tugL7jm7lT02h3oq58p+0p4t1KrpYRzMuhU1vw4Tj3HrBt6w9h7qBtx+XbiDN4klGcpS2PrQsvpSVJbIqI4BdLjiCnyfowpi9nyJKQGMoi3//jZ688+ykip6CpK1go4J5ALn0yLBsL08em4NBqenba7pXF3xPMk4aXkpPE3CKvZ4/OUTpr105ZJqU1Uae6NivkZjwI/XKxVioS6QXJjzVjn5jRFbNZdS3gb5NWuffxkk4JaSScBpObpWas08eIkEzSU4UhSiq9q19Mfvfz6xcsXP3n171/dPvts9fSPq3/+OGNHzRbf7yF14YCkh3EmQxVTXSNHQecjEdNL/fupLqGI/Dp04hOPUbO2uyOuQmqIQNfg5sT/qDeHziUsi7ABPUdB37Fo94apw2oeIy1LAEcXFjRNP7lCxgRZl5Pw/ueT393+9ovbZ5+/fv+vqw/+svr5s1fPf//60z/Ik3T70ee3Tz9VlTtf3IUv/GIqsVxJvHTYJX7CSrwFl75575clz2clQA6lUFSZb977dcoYd1RgjMQyILPYkawLa6JpZa5XSrkS+5DRi1VkH2/ztlSPJVRj8hfETiZ5t8JNAbwsCca3euNKSHHJB1D0bVhJVjhR3lZPqcg2efJQrxk1xZXe8CVMLJoK/ZHrTyy3FDHEO0JOJKP1ZoVEVsx31B+2mv1ERDoxDBwc8DSUH6hHI2wYpVeKAlzAbHbo8ueeNbF1Foq+UiVMU+8m06bDX8s3vzJkJFA7DAKJbDz15D4KF4Bjowe2u/ni0TEFXY8lzEyD2WTc62T5ME5xoaFl2Zwg+KIqKZasUD3Kn2gkEj3moUmGwMs8VEI41Ku6RExXBLZB48WmGwR+sLHiJJxIbAAgGKqIlkQ8ltH4lBIwO8leRYSoysUf8tKmVuh3sItZ4SfnSHsAiPe+urD3RVV7dOg6KpjFbg1xWBID6Xd3nihFnWkGAUAh/kpX+KG8T7zLXrHVm1PHdvZ0ezK1G7sTBzca1k79QX1aM7BRf9iAhiSN8kskN8FvIfwKVmwSAIBZ9eS6fAoX6ILWZICFIr9SQqTEgVSFPR6jQxJQ9oiXKPUlKY9jymMJhx9x/+SHGD826+o3IhDQ0pNpGa+j+sLkTzS+2ydzUvDaqUdFKGsE0mCxkHix6IZCzzvGN4BmUxagWk9+AP1MvtMUsSZPFRT5WD+yNQonhc1pkfIJ8Hli3U+76wAwu7+2+MGDuP+HAwJ53ddEz6PkYsaK7msNrn/4Aa5ValPbruzAoALdeFJxrGnD0PVp3dmt8YdpZRy6A8HXBSfhPYXQ0HKL62m5X6zN/wEM5ZLl6h4AAA==</t>
         </r>
       </text>
     </comment>
@@ -36,15 +37,58 @@
 </comments>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Select this link and click Refresh/Edit Download to update data and add or remove series</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Series ID</t>
+  </si>
+  <si>
+    <t>First Obs. Date</t>
+  </si>
+  <si>
+    <t>Last Obs. Date</t>
+  </si>
+  <si>
+    <t>Last Update Time</t>
+  </si>
+  <si>
+    <t>Agriculture Output Value: Other Crops: Misc: Assam</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Annual, Ending "mar" Of Each Year</t>
+  </si>
+  <si>
+    <t>INR mn</t>
+  </si>
+  <si>
+    <t>310902302 (IBBFCNAAC)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +119,37 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,30 +157,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,356 +506,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Select this link and click Refresh/Edit Download to update data and add or remove series</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Consolidated Government Revenue: ytd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Subnational</t>
-        </is>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>RUB bn</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>NRT SOURCE TEST</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Series ID</t>
-        </is>
-      </c>
-      <c r="B8" s="3">
-        <v>310918701</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>SR Code</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>SR4824980</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Mnemonic</t>
-        </is>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Function Description</t>
-        </is>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>First Obs. Date</t>
-        </is>
-      </c>
-      <c r="B12" s="4">
-        <v>33970</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Last Obs. Date</t>
-        </is>
-      </c>
-      <c r="B13" s="4">
-        <v>41671</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Last Update Time</t>
-        </is>
-      </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Series remarks</t>
-        </is>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Suggestions</t>
-        </is>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="B17" s="2">
-        <v>13793.63</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Variance</t>
-        </is>
-      </c>
-      <c r="B18" s="2">
-        <v>54664623.109</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B19" s="2">
-        <v>7393.5528069393</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Skewness</t>
-        </is>
-      </c>
-      <c r="B20" s="2">
-        <v>-0.3785388757796306</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Kurtosis</t>
-        </is>
-      </c>
-      <c r="B21" s="2">
-        <v>-0.7791808733004637</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Coefficient Variation</t>
-        </is>
-      </c>
-      <c r="B22" s="2">
-        <v>0.5360121162405618</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="B23" s="2">
-        <v>1726.3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="B24" s="2">
-        <v>24082.4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Median</t>
-        </is>
-      </c>
-      <c r="B25" s="2">
-        <v>14523.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>No. of Obs</t>
-        </is>
-      </c>
-      <c r="B26" s="2">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7">
-        <v>41395</v>
-      </c>
-      <c r="B27" s="8">
-        <v>9441.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7">
-        <v>41426</v>
-      </c>
-      <c r="B28" s="8">
-        <v>11370.7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7">
-        <v>41456</v>
-      </c>
-      <c r="B29" s="8">
-        <v>13574.9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7">
-        <v>41487</v>
-      </c>
-      <c r="B30" s="8">
-        <v>15472.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7">
-        <v>41518</v>
-      </c>
-      <c r="B31" s="8">
-        <v>17417.5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7">
-        <v>41548</v>
-      </c>
-      <c r="B32" s="8">
-        <v>19700.9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
-        <v>41579</v>
-      </c>
-      <c r="B33" s="8">
-        <v>21570.2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
-        <v>41609</v>
-      </c>
-      <c r="B34" s="8">
-        <v>24082.4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
-        <v>41640</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1726.3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
-        <v>41671</v>
-      </c>
-      <c r="B36" s="8">
-        <v>3579.8</v>
-      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>38412</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>40603</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44312</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>38412</v>
+      </c>
+      <c r="B9" s="11">
+        <v>55.2</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>38777</v>
+      </c>
+      <c r="B10" s="11">
+        <v>50.7</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>39142</v>
+      </c>
+      <c r="B11" s="11">
+        <v>47.9</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>39508</v>
+      </c>
+      <c r="B12" s="11">
+        <v>50.7</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>39873</v>
+      </c>
+      <c r="B13" s="11">
+        <v>50.7</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>40238</v>
+      </c>
+      <c r="B14" s="11">
+        <v>50.5</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>40603</v>
+      </c>
+      <c r="B15" s="11">
+        <v>52.8</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
